--- a/data/trans_bre/P1418-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1418-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.413148018191758</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.92427525909797</v>
+        <v>4.924275259097969</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.63142839171473</v>
@@ -649,7 +649,7 @@
         <v>1.301068192399747</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1.092444910253202</v>
+        <v>1.092444910253201</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6171124239717254</v>
+        <v>0.4831763790943843</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.478234043341405</v>
+        <v>4.205714607867788</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.903509791869813</v>
+        <v>2.005911380490132</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.523018653894026</v>
+        <v>2.803501608450719</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08346559879109219</v>
+        <v>0.07521446479558855</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.093620119275334</v>
+        <v>1.065321756549816</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3738864507578622</v>
+        <v>0.3846366601024576</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4323398039831318</v>
+        <v>0.4682696873080875</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.997814159508855</v>
+        <v>5.912805146103577</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.839060224620946</v>
+        <v>9.485740567417905</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.043168119305827</v>
+        <v>7.345506353825182</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.99892158801616</v>
+        <v>7.047391560929113</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.393250909799643</v>
+        <v>1.407395606403273</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.452144990972378</v>
+        <v>4.627695032126903</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.886173018358758</v>
+        <v>2.825028488024341</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.988865779802724</v>
+        <v>2.082211669016656</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>1.614658986691452</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.140850637945861</v>
+        <v>1.140850637945862</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.204508860351455</v>
+        <v>1.395738434555339</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.319229744094353</v>
+        <v>4.148714227350153</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.06071563583433</v>
+        <v>1.970334559240971</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.787136500173617</v>
+        <v>2.802031530164595</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1568859627071388</v>
+        <v>0.2260850516916479</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8931664294457839</v>
+        <v>0.8957051779966756</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.565627286090826</v>
+        <v>0.6040137393708772</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5466543656282561</v>
+        <v>0.5464693502490251</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.279083473154732</v>
+        <v>6.468075024516813</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.761696244896164</v>
+        <v>8.793407350948428</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.744740771981601</v>
+        <v>5.644910044516427</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.272470632358476</v>
+        <v>6.212215099125721</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.361547685521677</v>
+        <v>1.47760939272822</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.003715455768865</v>
+        <v>3.109868426242866</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.080353002710348</v>
+        <v>3.330522323988889</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.039752702415713</v>
+        <v>1.861287416724037</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>5.232564849322376</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.739112948445516</v>
+        <v>3.739112948445518</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.18852887573126</v>
@@ -849,7 +849,7 @@
         <v>2.27211884445675</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8412403887017947</v>
+        <v>0.8412403887017951</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.191336502116534</v>
+        <v>3.037492121732266</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.045736286849108</v>
+        <v>2.105044728572161</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.971835873138331</v>
+        <v>3.057229346670666</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.59526480237394</v>
+        <v>1.643359942914036</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.459121936045247</v>
+        <v>0.4718270870001099</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3905685777037208</v>
+        <v>0.4433251928109265</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8858892691978729</v>
+        <v>0.8833233589854048</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2645242750682167</v>
+        <v>0.2537303924896673</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.041146728925106</v>
+        <v>9.239599455340455</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.110787849554148</v>
+        <v>7.320573210750562</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.684135186313973</v>
+        <v>7.63859322129266</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.000984743481547</v>
+        <v>6.194259548239351</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.318729783382281</v>
+        <v>2.246879151506041</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.269465117930215</v>
+        <v>3.287834173783195</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.929739441021375</v>
+        <v>4.781861645311064</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.782298322691157</v>
+        <v>1.773161312298504</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.673541364785865</v>
+        <v>3.042749831648623</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.780797602477535</v>
+        <v>5.884938325657623</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.505870367642632</v>
+        <v>3.623469024770651</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.976920206189332</v>
+        <v>3.117010586404739</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4221880432236802</v>
+        <v>0.4674052598635957</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.64477607393828</v>
+        <v>1.620762337952377</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.225797318173017</v>
+        <v>1.374471036636847</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5295764964966767</v>
+        <v>0.5387937763507661</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.45518340076636</v>
+        <v>7.615340012961891</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.2275776985972</v>
+        <v>10.36807324563406</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.541616235021128</v>
+        <v>7.398684741815612</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.878346641680901</v>
+        <v>6.981078024380327</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.650105681063819</v>
+        <v>1.694992622775907</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.573348276305239</v>
+        <v>5.306305863783953</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6.243604866678775</v>
+        <v>6.169370380554866</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.055086835013787</v>
+        <v>2.046528451510237</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.423952312759858</v>
+        <v>3.390369781274092</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.468859246253692</v>
+        <v>5.47743949904439</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.609289546794796</v>
+        <v>3.69408094350243</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.610496776568078</v>
+        <v>3.569450761101485</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5766398584634956</v>
+        <v>0.5554191921367343</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.493970961775427</v>
+        <v>1.548396782033233</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.346756807580446</v>
+        <v>1.351303871030436</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.7700700107344205</v>
+        <v>0.7390101923768541</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.980610133474189</v>
+        <v>5.886691809521658</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.829195675221998</v>
+        <v>7.780121108162732</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.755405883982723</v>
+        <v>5.819523184308721</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.549028486487788</v>
+        <v>5.540854906522018</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.228376231554995</v>
+        <v>1.190903813270168</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.947051665438676</v>
+        <v>2.916167243726369</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.85737203402202</v>
+        <v>2.829265830178318</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.519835673892422</v>
+        <v>1.473045112886966</v>
       </c>
     </row>
     <row r="19">
